--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Subject</t>
   </si>
@@ -31,6 +31,192 @@
   </si>
   <si>
     <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>MALB_Defect</t>
+  </si>
+  <si>
+    <t>MALB_Low</t>
+  </si>
+  <si>
+    <t>MALB_Hyper</t>
+  </si>
+  <si>
+    <t>MALB_VDP</t>
+  </si>
+  <si>
+    <t>BF_MALB_Defect</t>
+  </si>
+  <si>
+    <t>BF_MALB_Low</t>
+  </si>
+  <si>
+    <t>BF_MALB_Hyper</t>
+  </si>
+  <si>
+    <t>BF_MALB_VDP</t>
+  </si>
+  <si>
+    <t>LB_Bin1</t>
+  </si>
+  <si>
+    <t>LB_Bin2</t>
+  </si>
+  <si>
+    <t>LB_Bin3</t>
+  </si>
+  <si>
+    <t>LB_Bin4</t>
+  </si>
+  <si>
+    <t>LB_Bin5</t>
+  </si>
+  <si>
+    <t>LB_Bin6</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin1</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin2</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin3</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin4</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin5</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin6</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster1</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster2</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster3</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster4</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Xe-020</t>
+  </si>
+  <si>
+    <t>Scan_Date</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>Process_Date</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>MALB_Defect</t>
+  </si>
+  <si>
+    <t>MALB_Low</t>
+  </si>
+  <si>
+    <t>MALB_Hyper</t>
+  </si>
+  <si>
+    <t>MALB_VDP</t>
+  </si>
+  <si>
+    <t>BF_MALB_Defect</t>
+  </si>
+  <si>
+    <t>BF_MALB_Low</t>
+  </si>
+  <si>
+    <t>BF_MALB_Hyper</t>
+  </si>
+  <si>
+    <t>BF_MALB_VDP</t>
+  </si>
+  <si>
+    <t>LB_Bin1</t>
+  </si>
+  <si>
+    <t>LB_Bin2</t>
+  </si>
+  <si>
+    <t>LB_Bin3</t>
+  </si>
+  <si>
+    <t>LB_Bin4</t>
+  </si>
+  <si>
+    <t>LB_Bin5</t>
+  </si>
+  <si>
+    <t>LB_Bin6</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin1</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin2</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin3</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin4</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin5</t>
+  </si>
+  <si>
+    <t>BF_LB_Bin6</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster1</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster2</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster3</t>
+  </si>
+  <si>
+    <t>ATROPOS_Cluster4</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Xe-020</t>
+  </si>
+  <si>
+    <t>Scan_Date</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>Process_Date</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
   </si>
   <si>
     <t>SNR</t>
@@ -126,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,14 +322,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,162 +378,174 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>35.568969520616015</v>
-      </c>
-      <c r="E2">
-        <v>0.054633126677593291</v>
-      </c>
-      <c r="F2">
-        <v>11.17603743556854</v>
-      </c>
-      <c r="G2">
-        <v>0.038005653340934462</v>
-      </c>
-      <c r="H2">
-        <v>11.230670562246134</v>
-      </c>
-      <c r="I2">
+        <v>67</v>
+      </c>
+      <c r="D2" s="0">
+        <v>32.852722010464042</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4.7100403923831502</v>
+      </c>
+      <c r="F2" s="0">
+        <v>11.450519330640507</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1.3668493941142528</v>
+      </c>
+      <c r="H2" s="0">
+        <v>16.16055972302366</v>
+      </c>
+      <c r="I2" s="0">
+        <v>4.6739757645701099</v>
+      </c>
+      <c r="J2" s="0">
+        <v>10.920369301788806</v>
+      </c>
+      <c r="K2" s="0">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1.9169101403833821</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1.9169101403833819</v>
-      </c>
-      <c r="M2">
-        <v>2.275588493788451</v>
-      </c>
-      <c r="N2">
-        <v>15.522934036437922</v>
-      </c>
-      <c r="O2">
-        <v>30.321385306064276</v>
-      </c>
-      <c r="P2">
-        <v>33.235943846647189</v>
-      </c>
-      <c r="Q2">
-        <v>14.91009287631535</v>
-      </c>
-      <c r="R2">
-        <v>3.7340554407468112</v>
-      </c>
-      <c r="S2">
-        <v>0.83137366683294145</v>
-      </c>
-      <c r="T2">
-        <v>4.2328796408465754</v>
-      </c>
-      <c r="U2">
-        <v>14.693935722938786</v>
-      </c>
-      <c r="V2">
-        <v>40.787192094824107</v>
-      </c>
-      <c r="W2">
-        <v>33.953300553457325</v>
-      </c>
-      <c r="X2">
-        <v>5.5013183211002641</v>
+      <c r="L2" s="0">
+        <v>15.594345066358915</v>
+      </c>
+      <c r="M2" s="0">
+        <v>11.717397576457012</v>
+      </c>
+      <c r="N2" s="0">
+        <v>20.1601269474899</v>
+      </c>
+      <c r="O2" s="0">
+        <v>32.595210617426432</v>
+      </c>
+      <c r="P2" s="0">
+        <v>24.174120023081361</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>8.6230525100980966</v>
+      </c>
+      <c r="R2" s="0">
+        <v>2.7300923254472016</v>
+      </c>
+      <c r="S2" s="0">
+        <v>8.9800923254472025</v>
+      </c>
+      <c r="T2" s="0">
+        <v>11.255770340450088</v>
+      </c>
+      <c r="U2" s="0">
+        <v>17.181188690132718</v>
+      </c>
+      <c r="V2" s="0">
+        <v>22.832515868436236</v>
+      </c>
+      <c r="W2" s="0">
+        <v>20.080784766301214</v>
+      </c>
+      <c r="X2" s="0">
+        <v>19.669648009232546</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>5.474610502019619</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>14.090450086555107</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>43.995239469128677</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>36.439699942296592</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Subject</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>ATROPOS_Cluster4</t>
+  </si>
+  <si>
+    <t>Xe-027</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -324,16 +333,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,175 +390,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="0">
-        <v>32.852722010464042</v>
-      </c>
-      <c r="E2" s="0">
-        <v>4.7100403923831502</v>
-      </c>
-      <c r="F2" s="0">
-        <v>11.450519330640507</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.3668493941142528</v>
-      </c>
-      <c r="H2" s="0">
-        <v>16.16055972302366</v>
-      </c>
-      <c r="I2" s="0">
-        <v>4.6739757645701099</v>
-      </c>
-      <c r="J2" s="0">
-        <v>10.920369301788806</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0">
-        <v>15.594345066358915</v>
-      </c>
-      <c r="M2" s="0">
-        <v>11.717397576457012</v>
-      </c>
-      <c r="N2" s="0">
-        <v>20.1601269474899</v>
-      </c>
-      <c r="O2" s="0">
-        <v>32.595210617426432</v>
-      </c>
-      <c r="P2" s="0">
-        <v>24.174120023081361</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>8.6230525100980966</v>
-      </c>
-      <c r="R2" s="0">
-        <v>2.7300923254472016</v>
-      </c>
-      <c r="S2" s="0">
-        <v>8.9800923254472025</v>
-      </c>
-      <c r="T2" s="0">
-        <v>11.255770340450088</v>
-      </c>
-      <c r="U2" s="0">
-        <v>17.181188690132718</v>
-      </c>
-      <c r="V2" s="0">
-        <v>22.832515868436236</v>
-      </c>
-      <c r="W2" s="0">
-        <v>20.080784766301214</v>
-      </c>
-      <c r="X2" s="0">
-        <v>19.669648009232546</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>5.474610502019619</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>14.090450086555107</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>43.995239469128677</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>36.439699942296592</v>
+      <c r="A2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>23.18216044855421</v>
+      </c>
+      <c r="E2">
+        <v>6.3431807745293129</v>
+      </c>
+      <c r="F2">
+        <v>19.014235420174501</v>
+      </c>
+      <c r="G2">
+        <v>6.0921475585489056</v>
+      </c>
+      <c r="H2">
+        <v>25.357416194703813</v>
+      </c>
+      <c r="I2">
+        <v>6.0370427062605234</v>
+      </c>
+      <c r="J2">
+        <v>17.624368590234198</v>
+      </c>
+      <c r="K2">
+        <v>2.5225776825348234</v>
+      </c>
+      <c r="L2">
+        <v>23.66141129649472</v>
+      </c>
+      <c r="M2">
+        <v>20.719424460431654</v>
+      </c>
+      <c r="N2">
+        <v>32.769018827491195</v>
+      </c>
+      <c r="O2">
+        <v>26.738098882596052</v>
+      </c>
+      <c r="P2">
+        <v>12.37410071942446</v>
+      </c>
+      <c r="Q2">
+        <v>4.8951477116179403</v>
+      </c>
+      <c r="R2">
+        <v>2.5042093984386957</v>
+      </c>
+      <c r="S2">
+        <v>14.780345936017145</v>
+      </c>
+      <c r="T2">
+        <v>17.449869891320986</v>
+      </c>
+      <c r="U2">
+        <v>22.045002296035513</v>
+      </c>
+      <c r="V2">
+        <v>18.423388948415738</v>
+      </c>
+      <c r="W2">
+        <v>11.930200520434717</v>
+      </c>
+      <c r="X2">
+        <v>15.371192407775908</v>
+      </c>
+      <c r="Y2">
+        <v>5.6696770243379762</v>
+      </c>
+      <c r="Z2">
+        <v>28.675952854737485</v>
+      </c>
+      <c r="AA2">
+        <v>52.337364151232208</v>
+      </c>
+      <c r="AB2">
+        <v>13.31700596969233</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>Subject</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-19</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -335,11 +338,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -347,6 +352,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,175 +397,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>95</v>
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>23.18216044855421</v>
+        <v>33.779210498172212</v>
       </c>
       <c r="E2">
-        <v>6.3431807745293129</v>
+        <v>5.1195827471433963</v>
       </c>
       <c r="F2">
-        <v>19.014235420174501</v>
+        <v>12.14356792368665</v>
       </c>
       <c r="G2">
-        <v>6.0921475585489056</v>
+        <v>1.5921490580928523</v>
       </c>
       <c r="H2">
-        <v>25.357416194703813</v>
+        <v>17.263150670830044</v>
       </c>
       <c r="I2">
-        <v>6.0370427062605234</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.624368590234198</v>
+        <v>76.104038705692616</v>
       </c>
       <c r="K2">
-        <v>2.5225776825348234</v>
+        <v>13.100916171979549</v>
       </c>
       <c r="L2">
-        <v>23.66141129649472</v>
+        <v>76.104038705692616</v>
       </c>
       <c r="M2">
-        <v>20.719424460431654</v>
+        <v>13.317091582884396</v>
       </c>
       <c r="N2">
-        <v>32.769018827491195</v>
+        <v>20.38225302817143</v>
       </c>
       <c r="O2">
-        <v>26.738098882596052</v>
+        <v>31.441512541605189</v>
       </c>
       <c r="P2">
-        <v>12.37410071942446</v>
+        <v>23.611158768829565</v>
       </c>
       <c r="Q2">
-        <v>4.8951477116179403</v>
+        <v>8.5028994955907073</v>
       </c>
       <c r="R2">
-        <v>2.5042093984386957</v>
+        <v>2.7450845829187114</v>
       </c>
       <c r="S2">
-        <v>14.780345936017145</v>
+        <v>81.70401125484679</v>
       </c>
       <c r="T2">
-        <v>17.449869891320986</v>
+        <v>4.5568404076450602</v>
       </c>
       <c r="U2">
-        <v>22.045002296035513</v>
+        <v>3.9014514634732183</v>
       </c>
       <c r="V2">
-        <v>18.423388948415738</v>
+        <v>3.9700785780461856</v>
       </c>
       <c r="W2">
-        <v>11.930200520434717</v>
+        <v>3.5514531791510824</v>
       </c>
       <c r="X2">
-        <v>15.371192407775908</v>
+        <v>2.3161651168376629</v>
       </c>
       <c r="Y2">
-        <v>5.6696770243379762</v>
+        <v>5.5142815926139646</v>
       </c>
       <c r="Z2">
-        <v>28.675952854737485</v>
+        <v>13.571119446047316</v>
       </c>
       <c r="AA2">
-        <v>52.337364151232208</v>
+        <v>45.059145989613384</v>
       </c>
       <c r="AB2">
-        <v>13.31700596969233</v>
+        <v>35.855452971725335</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>Subject</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>2021-11-19</t>
+  </si>
+  <si>
+    <t>Xe-037</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -340,11 +349,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -354,6 +365,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,175 +410,175 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>96</v>
+      <c r="A2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>33.779210498172212</v>
+        <v>18.40078544613359</v>
       </c>
       <c r="E2">
-        <v>5.1195827471433963</v>
+        <v>1.1210269486086077</v>
       </c>
       <c r="F2">
-        <v>12.14356792368665</v>
+        <v>8.075790214094166</v>
       </c>
       <c r="G2">
-        <v>1.5921490580928523</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.263150670830044</v>
+        <v>9.1968171627027733</v>
       </c>
       <c r="I2">
+        <v>0.15166835187057634</v>
+      </c>
+      <c r="J2">
+        <v>2.7256341495581835</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>76.104038705692616</v>
-      </c>
-      <c r="K2">
-        <v>13.100916171979549</v>
-      </c>
       <c r="L2">
-        <v>76.104038705692616</v>
+        <v>2.8773025014287597</v>
       </c>
       <c r="M2">
-        <v>13.317091582884396</v>
+        <v>3.9038114916252691</v>
       </c>
       <c r="N2">
-        <v>20.38225302817143</v>
+        <v>9.6056622851365017</v>
       </c>
       <c r="O2">
-        <v>31.441512541605189</v>
+        <v>23.680045720314766</v>
       </c>
       <c r="P2">
-        <v>23.611158768829565</v>
+        <v>33.848419571811668</v>
       </c>
       <c r="Q2">
-        <v>8.5028994955907073</v>
+        <v>23.495405987602762</v>
       </c>
       <c r="R2">
-        <v>2.7450845829187114</v>
+        <v>5.4666549435090337</v>
       </c>
       <c r="S2">
-        <v>81.70401125484679</v>
+        <v>2.1211588341319731</v>
       </c>
       <c r="T2">
-        <v>4.5568404076450602</v>
+        <v>3.5433243944256385</v>
       </c>
       <c r="U2">
-        <v>3.9014514634732183</v>
+        <v>9.0649316393370558</v>
       </c>
       <c r="V2">
-        <v>3.9700785780461856</v>
+        <v>35.800325317624306</v>
       </c>
       <c r="W2">
-        <v>3.5514531791510824</v>
+        <v>42.249527410207939</v>
       </c>
       <c r="X2">
-        <v>2.3161651168376629</v>
+        <v>7.2207324042730905</v>
       </c>
       <c r="Y2">
-        <v>5.5142815926139646</v>
+        <v>7.4929881337648325</v>
       </c>
       <c r="Z2">
-        <v>13.571119446047316</v>
+        <v>14.727076591154262</v>
       </c>
       <c r="AA2">
-        <v>45.059145989613384</v>
+        <v>33.659115426105714</v>
       </c>
       <c r="AB2">
-        <v>35.855452971725335</v>
+        <v>44.120819848975188</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>Subject</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>Xe-042</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>Xe-040</t>
   </si>
 </sst>
 </file>
@@ -333,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -351,11 +360,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -367,6 +380,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,175 +427,163 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>99</v>
+      <c r="A2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>18.40078544613359</v>
+        <v>15.168463436250684</v>
       </c>
       <c r="E2">
-        <v>1.1210269486086077</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.075790214094166</v>
+        <v>5.6742612948193516</v>
       </c>
       <c r="G2">
+        <v>0.98951072922141736</v>
+      </c>
+      <c r="H2">
+        <v>5.6742612948193516</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>9.1968171627027733</v>
-      </c>
-      <c r="I2">
-        <v>0.15166835187057634</v>
-      </c>
       <c r="J2">
-        <v>2.7256341495581835</v>
+        <v>1.6476610525834685</v>
       </c>
       <c r="K2">
+        <v>0.12111794145204416</v>
+      </c>
+      <c r="L2">
+        <v>1.6476610525834685</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>2.8773025014287597</v>
-      </c>
-      <c r="M2">
-        <v>3.9038114916252691</v>
-      </c>
       <c r="N2">
-        <v>9.6056622851365017</v>
+        <v>35.169907904659617</v>
       </c>
       <c r="O2">
-        <v>23.680045720314766</v>
+        <v>34.472908430265775</v>
       </c>
       <c r="P2">
-        <v>33.848419571811668</v>
+        <v>19.874768619026941</v>
       </c>
       <c r="Q2">
-        <v>23.495405987602762</v>
+        <v>7.8383875317077631</v>
       </c>
       <c r="R2">
-        <v>5.4666549435090337</v>
+        <v>2.6440275143399075</v>
       </c>
       <c r="S2">
-        <v>2.1211588341319731</v>
+        <v>0.38392102196119654</v>
       </c>
       <c r="T2">
-        <v>3.5433243944256385</v>
+        <v>17.493544185196189</v>
       </c>
       <c r="U2">
-        <v>9.0649316393370558</v>
+        <v>32.747549075618728</v>
       </c>
       <c r="V2">
-        <v>35.800325317624306</v>
+        <v>36.218834982517883</v>
       </c>
       <c r="W2">
-        <v>42.249527410207939</v>
+        <v>10.772641056696909</v>
       </c>
       <c r="X2">
-        <v>7.2207324042730905</v>
-      </c>
-      <c r="Y2">
-        <v>7.4929881337648325</v>
-      </c>
-      <c r="Z2">
-        <v>14.727076591154262</v>
-      </c>
-      <c r="AA2">
-        <v>33.659115426105714</v>
-      </c>
-      <c r="AB2">
-        <v>44.120819848975188</v>
+        <v>2.3835096780090952</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8704" uniqueCount="6915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8740" uniqueCount="6921">
   <si>
     <t>Subject</t>
   </si>
@@ -20758,6 +20758,24 @@
   </si>
   <si>
     <t>ATROPOS_Cluster4</t>
+  </si>
+  <si>
+    <t>Analysis_Version</t>
+  </si>
+  <si>
+    <t>Version_20220713</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>H_Index</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CV_BF</t>
   </si>
 </sst>
 </file>
@@ -20778,7 +20796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -20853,11 +20871,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -20926,6 +20946,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20935,209 +20957,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AF67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="true"/>
-    <col min="2" max="2" width="10.5703125" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="16.140625" customWidth="true"/>
-    <col min="10" max="10" width="13.85546875" customWidth="true"/>
-    <col min="11" max="11" width="15.5703125" customWidth="true"/>
-    <col min="12" max="12" width="14" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="13.7109375" customWidth="true"/>
-    <col min="20" max="20" width="12.7109375" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="17.85546875" customWidth="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="13" customWidth="true"/>
+    <col min="5" max="5" width="4.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="10.85546875" customWidth="true"/>
+    <col min="10" max="10" width="16.140625" customWidth="true"/>
+    <col min="11" max="11" width="13.85546875" customWidth="true"/>
+    <col min="12" max="12" width="15.5703125" customWidth="true"/>
+    <col min="13" max="13" width="14" customWidth="true"/>
+    <col min="14" max="14" width="8" customWidth="true"/>
+    <col min="15" max="15" width="8" customWidth="true"/>
+    <col min="16" max="16" width="8" customWidth="true"/>
+    <col min="17" max="17" width="8" customWidth="true"/>
+    <col min="18" max="18" width="8" customWidth="true"/>
+    <col min="19" max="19" width="8" customWidth="true"/>
+    <col min="20" max="20" width="11.140625" customWidth="true"/>
+    <col min="21" max="21" width="11.140625" customWidth="true"/>
+    <col min="22" max="22" width="11.140625" customWidth="true"/>
+    <col min="23" max="23" width="11.140625" customWidth="true"/>
+    <col min="24" max="24" width="11.140625" customWidth="true"/>
+    <col min="25" max="25" width="11.140625" customWidth="true"/>
     <col min="26" max="26" width="17.85546875" customWidth="true"/>
     <col min="27" max="27" width="17.85546875" customWidth="true"/>
     <col min="28" max="28" width="17.85546875" customWidth="true"/>
+    <col min="29" max="29" width="17.85546875" customWidth="true"/>
+    <col min="30" max="30" width="8.42578125" customWidth="true"/>
+    <col min="31" max="31" width="3.5703125" customWidth="true"/>
+    <col min="32" max="32" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="68" t="s">
         <v>6744</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="68" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>6810</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="68" t="s">
         <v>6866</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="68" t="s">
         <v>6890</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="68" t="s">
         <v>6891</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="68" t="s">
         <v>6892</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="68" t="s">
         <v>6893</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="68" t="s">
         <v>6894</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="68" t="s">
         <v>6895</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="68" t="s">
         <v>6896</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="68" t="s">
         <v>6897</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="68" t="s">
         <v>6898</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="68" t="s">
         <v>6899</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="68" t="s">
         <v>6900</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="68" t="s">
         <v>6901</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="68" t="s">
         <v>6902</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="68" t="s">
         <v>6903</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="68" t="s">
         <v>6904</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="68" t="s">
         <v>6905</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="68" t="s">
         <v>6906</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="68" t="s">
         <v>6907</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="68" t="s">
         <v>6908</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="68" t="s">
         <v>6909</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Y1" s="68" t="s">
         <v>6910</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="68" t="s">
         <v>6911</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="68" t="s">
         <v>6912</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="68" t="s">
         <v>6913</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="68" t="s">
         <v>6914</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>6918</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>6919</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>6920</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>6745</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6811</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6867</v>
-      </c>
-      <c r="D2" s="0">
-        <v>33.779210498172098</v>
-      </c>
-      <c r="E2" s="0">
-        <v>5.1195827471433963</v>
-      </c>
-      <c r="F2" s="0">
-        <v>12.14356792368665</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.5921490580928523</v>
-      </c>
-      <c r="H2" s="0">
-        <v>17.263150670830044</v>
-      </c>
-      <c r="I2" s="0">
-        <v>5.0681124112136704</v>
-      </c>
-      <c r="J2" s="0">
-        <v>10.928867995745119</v>
-      </c>
-      <c r="K2" s="0">
+      <c r="A2" s="68" t="s">
+        <v>6806</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>6862</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>6917</v>
+      </c>
+      <c r="E2">
+        <v>26.868994999139659</v>
+      </c>
+      <c r="F2">
+        <v>0.10902985237357989</v>
+      </c>
+      <c r="G2">
+        <v>9.4855971565014503</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2" s="0">
-        <v>15.996980406958789</v>
-      </c>
-      <c r="M2" s="0">
-        <v>13.317091582884396</v>
-      </c>
-      <c r="N2" s="0">
-        <v>20.38225302817143</v>
-      </c>
-      <c r="O2" s="0">
-        <v>31.441512541605189</v>
-      </c>
-      <c r="P2" s="0">
-        <v>23.611158768829565</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>8.5028994955907073</v>
-      </c>
-      <c r="R2" s="0">
-        <v>2.7450845829187114</v>
-      </c>
-      <c r="S2" s="0">
-        <v>10.355831589060838</v>
-      </c>
-      <c r="T2" s="0">
-        <v>11.440139999313729</v>
-      </c>
-      <c r="U2" s="0">
-        <v>16.775898157361972</v>
-      </c>
-      <c r="V2" s="0">
-        <v>22.012146999279416</v>
-      </c>
-      <c r="W2" s="0">
-        <v>20.354802182342244</v>
-      </c>
-      <c r="X2" s="0">
-        <v>19.061181072641801</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>14.658751672785918</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>26.740555193356897</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>35.521394502968121</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>23.079298630889063</v>
+      <c r="I2">
+        <v>9.5946270088750296</v>
+      </c>
+      <c r="J2">
+        <v>0.015264179332301184</v>
+      </c>
+      <c r="K2">
+        <v>3.3908284088183347</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3.4060925881506354</v>
+      </c>
+      <c r="N2">
+        <v>3.1400597483591008</v>
+      </c>
+      <c r="O2">
+        <v>11.768682265204212</v>
+      </c>
+      <c r="P2">
+        <v>27.189864584923352</v>
+      </c>
+      <c r="Q2">
+        <v>34.318236333108004</v>
+      </c>
+      <c r="R2">
+        <v>19.12165550927844</v>
+      </c>
+      <c r="S2">
+        <v>4.4615015591268889</v>
+      </c>
+      <c r="T2">
+        <v>1.6746985324581871</v>
+      </c>
+      <c r="U2">
+        <v>4.5225582764560937</v>
+      </c>
+      <c r="V2">
+        <v>11.537538978172224</v>
+      </c>
+      <c r="W2">
+        <v>36.727796070564125</v>
+      </c>
+      <c r="X2">
+        <v>39.47970954447328</v>
+      </c>
+      <c r="Y2">
+        <v>6.0576985978760982</v>
+      </c>
+      <c r="Z2">
+        <v>7.6604374277677234</v>
+      </c>
+      <c r="AA2">
+        <v>16.147321136527182</v>
+      </c>
+      <c r="AB2">
+        <v>31.247955690267997</v>
+      </c>
+      <c r="AC2">
+        <v>44.944285745437099</v>
+      </c>
+      <c r="AD2">
+        <v>0.20976999249513414</v>
+      </c>
+      <c r="AE2">
+        <v>0.38423622167554705</v>
+      </c>
+      <c r="AF2">
+        <v>0.75607377290725708</v>
       </c>
     </row>
     <row r="3">

--- a/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
+++ b/AncillaryFiles/AllinOne_Ventilation_Summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8740" uniqueCount="6921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10756" uniqueCount="6927">
   <si>
     <t>Subject</t>
   </si>
@@ -20776,6 +20776,24 @@
   </si>
   <si>
     <t>CV_BF</t>
+  </si>
+  <si>
+    <t>Xe-043</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>Xe-041</t>
+  </si>
+  <si>
+    <t>2022-07-12</t>
+  </si>
+  <si>
+    <t>CXe-010</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
   </si>
 </sst>
 </file>
@@ -20796,7 +20814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="182">
     <border>
       <left/>
       <right/>
@@ -20873,11 +20891,123 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -20948,6 +21078,118 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20995,199 +21237,199 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="180" t="s">
         <v>6744</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="180" t="s">
         <v>6915</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="180" t="s">
         <v>6810</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="180" t="s">
         <v>6866</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="180" t="s">
         <v>6890</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="180" t="s">
         <v>6891</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="180" t="s">
         <v>6892</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="180" t="s">
         <v>6893</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="180" t="s">
         <v>6894</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="180" t="s">
         <v>6895</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="180" t="s">
         <v>6896</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="180" t="s">
         <v>6897</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="180" t="s">
         <v>6898</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="180" t="s">
         <v>6899</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="180" t="s">
         <v>6900</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="180" t="s">
         <v>6901</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="180" t="s">
         <v>6902</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="180" t="s">
         <v>6903</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="180" t="s">
         <v>6904</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="180" t="s">
         <v>6905</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="180" t="s">
         <v>6906</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="V1" s="180" t="s">
         <v>6907</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="180" t="s">
         <v>6908</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="X1" s="180" t="s">
         <v>6909</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Y1" s="180" t="s">
         <v>6910</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="180" t="s">
         <v>6911</v>
       </c>
-      <c r="AA1" s="68" t="s">
+      <c r="AA1" s="180" t="s">
         <v>6912</v>
       </c>
-      <c r="AB1" s="68" t="s">
+      <c r="AB1" s="180" t="s">
         <v>6913</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AC1" s="180" t="s">
         <v>6914</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AD1" s="180" t="s">
         <v>6918</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE1" s="180" t="s">
         <v>6919</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="180" t="s">
         <v>6920</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68" t="s">
-        <v>6806</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="180" t="s">
+        <v>6759</v>
+      </c>
+      <c r="B2" s="180" t="s">
         <v>6916</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>6862</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>6917</v>
+      <c r="C2" s="180" t="s">
+        <v>6868</v>
+      </c>
+      <c r="D2" s="180" t="s">
+        <v>6926</v>
       </c>
       <c r="E2">
-        <v>26.868994999139659</v>
+        <v>12.122366096908822</v>
       </c>
       <c r="F2">
-        <v>0.10902985237357989</v>
+        <v>1.2527459478715193</v>
       </c>
       <c r="G2">
-        <v>9.4855971565014503</v>
+        <v>10.09915098260405</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.60757188941004181</v>
       </c>
       <c r="I2">
-        <v>9.5946270088750296</v>
+        <v>11.351896930475569</v>
       </c>
       <c r="J2">
-        <v>0.015264179332301184</v>
+        <v>0.037602169051435805</v>
       </c>
       <c r="K2">
-        <v>3.3908284088183347</v>
+        <v>2.7053771101743553</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.4060925881506354</v>
+        <v>2.742979279225791</v>
       </c>
       <c r="N2">
-        <v>3.1400597483591008</v>
+        <v>4.927863207267114</v>
       </c>
       <c r="O2">
-        <v>11.768682265204212</v>
+        <v>13.564487719923212</v>
       </c>
       <c r="P2">
-        <v>27.189864584923352</v>
+        <v>36.887727839458528</v>
       </c>
       <c r="Q2">
-        <v>34.318236333108004</v>
+        <v>33.562904470699998</v>
       </c>
       <c r="R2">
-        <v>19.12165550927844</v>
+        <v>8.5040273902115615</v>
       </c>
       <c r="S2">
-        <v>4.4615015591268889</v>
+        <v>2.5529893724395891</v>
       </c>
       <c r="T2">
-        <v>1.6746985324581871</v>
+        <v>1.6307466999149003</v>
       </c>
       <c r="U2">
-        <v>4.5225582764560937</v>
+        <v>2.996299154940727</v>
       </c>
       <c r="V2">
-        <v>11.537538978172224</v>
+        <v>6.1469651091452437</v>
       </c>
       <c r="W2">
-        <v>36.727796070564125</v>
+        <v>37.750598666112531</v>
       </c>
       <c r="X2">
-        <v>39.47970954447328</v>
+        <v>46.298165409962593</v>
       </c>
       <c r="Y2">
-        <v>6.0576985978760982</v>
+        <v>5.1772249599240041</v>
       </c>
       <c r="Z2">
-        <v>7.6604374277677234</v>
+        <v>6.6758685044421551</v>
       </c>
       <c r="AA2">
-        <v>16.147321136527182</v>
+        <v>11.071366084099612</v>
       </c>
       <c r="AB2">
-        <v>31.247955690267997</v>
+        <v>35.719979004257468</v>
       </c>
       <c r="AC2">
-        <v>44.944285745437099</v>
+        <v>46.53278640720076</v>
       </c>
       <c r="AD2">
-        <v>0.20976999249513414</v>
+        <v>0.17103981894253367</v>
       </c>
       <c r="AE2">
-        <v>0.38423622167554705</v>
+        <v>0.40617104697311696</v>
       </c>
       <c r="AF2">
-        <v>0.75607377290725708</v>
+        <v>0.74218612909317017</v>
       </c>
     </row>
     <row r="3">
